--- a/Module_24_HybridRediff/Files/StockSuite.xlsx
+++ b/Module_24_HybridRediff/Files/StockSuite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>ashish</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -607,7 +610,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -615,7 +618,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Module_24_HybridRediff/Files/StockSuite.xlsx
+++ b/Module_24_HybridRediff/Files/StockSuite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>ashish</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -573,7 +570,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -610,7 +607,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,7 +615,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
